--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1127987.347600254</v>
+        <v>1177071.23528972</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>606553.2040797155</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6507758.412290743</v>
+        <v>7008088.501158557</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
@@ -671,7 +673,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>190.6822345651559</v>
+        <v>44.69616728427791</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>137.8834167598883</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -874,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>166.3197703738364</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -899,19 +901,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>204.6657358189418</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>29.74512849779568</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,7 +1056,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
@@ -1063,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>10.04027365719966</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>152.6519738589866</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>170.485059477722</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>20.73696989209217</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.73641154315204</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>278.1618038329563</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>4.066501867749103e-12</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.05677735225391</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1610,22 +1612,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>92.63125910004136</v>
+        <v>175.447540846114</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314369</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1767,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>26.70160847752059</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704961</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1825,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>125.1716544454812</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682158</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>240.2737862279046</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2062,13 +2064,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695718</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,13 +2089,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.10461178738937</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>166.3197703738366</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>73.01514676193455</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2773,10 +2775,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>125.1716544454844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3187,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>126.8355823247564</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3433,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>242.3689292899438</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>320.7314535222158</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>21.87520451048465</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3907,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>148.6041873872578</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3952,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>193.8659438253731</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3977,10 +3979,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>19.66484339937357</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>75.41322569528315</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>108.1177056177446</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4144,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>39.57637241135519</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4192,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2190.910269352854</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C2" t="n">
-        <v>1752.767796536277</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D2" t="n">
-        <v>1316.858011710722</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E2" t="n">
-        <v>883.0832668690169</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G2" t="n">
         <v>53.81800590148855</v>
@@ -4328,16 +4330,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N2" t="n">
         <v>632.7278666362198</v>
@@ -4361,19 +4363,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199882</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.4151554573</v>
+        <v>2624.098132161372</v>
       </c>
       <c r="Y2" t="n">
-        <v>2213.169435797357</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>1006.821064952619</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1006.821064952619</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="K3" t="n">
-        <v>1006.821064952619</v>
+        <v>1693.724792654855</v>
       </c>
       <c r="L3" t="n">
-        <v>1006.821064952619</v>
+        <v>1693.724792654855</v>
       </c>
       <c r="M3" t="n">
-        <v>1006.821064952619</v>
+        <v>1693.724792654855</v>
       </c>
       <c r="N3" t="n">
-        <v>1006.821064952619</v>
+        <v>1693.724792654855</v>
       </c>
       <c r="O3" t="n">
-        <v>1468.481833257574</v>
+        <v>1693.724792654855</v>
       </c>
       <c r="P3" t="n">
-        <v>2129.321887799353</v>
+        <v>2354.564847196633</v>
       </c>
       <c r="Q3" t="n">
-        <v>2670.060826431428</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
         <v>2670.060826431428</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>933.2958513705994</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>933.2958513705994</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4522,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1819.558022317326</v>
+        <v>752.2549115535338</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.415549500749</v>
+        <v>314.1124387369571</v>
       </c>
       <c r="D5" t="n">
-        <v>945.5057646751934</v>
+        <v>107.3793722531775</v>
       </c>
       <c r="E5" t="n">
-        <v>511.7310198334886</v>
+        <v>77.64503145187676</v>
       </c>
       <c r="F5" t="n">
-        <v>83.86359024269632</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>83.86359024269632</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4568,22 +4570,22 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>518.3865980530361</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>1179.226652594814</v>
       </c>
       <c r="M5" t="n">
-        <v>1293.567921177998</v>
+        <v>1840.066707136593</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4598,19 +4600,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.857592802233</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>2018.283117621067</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="7">
@@ -4702,22 +4704,22 @@
         <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>741.4772326516127</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>575.5992398531354</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>405.8412361038726</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>229.1341820656288</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>63.5429070914565</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>63.5429070914565</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.798517333797</v>
+        <v>749.1815672676233</v>
       </c>
       <c r="C8" t="n">
-        <v>673.6560445172202</v>
+        <v>715.0794984914507</v>
       </c>
       <c r="D8" t="n">
-        <v>237.7462596916646</v>
+        <v>683.2101177062993</v>
       </c>
       <c r="E8" t="n">
-        <v>208.0119188903639</v>
+        <v>653.4757769049986</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>225.6083473142064</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2471.176067606882</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4838,16 +4840,16 @@
         <v>2366.341725488303</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2003.72477542213</v>
       </c>
       <c r="W8" t="n">
-        <v>1961.486270899337</v>
+        <v>1598.869320833163</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.343807478647</v>
+        <v>1583.767261452878</v>
       </c>
       <c r="Y8" t="n">
-        <v>1134.057683778301</v>
+        <v>1175.481137752531</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>992.5572028308845</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>819.9954913141095</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>654.1174985156322</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>484.3594947663694</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>307.6524407281256</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4999,13 +5001,13 @@
         <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1657.187246902351</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1411.795492235764</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1184.375821549872</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1331.576488675646</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>893.4340158590693</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>457.5242310335138</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>457.5242310335138</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335138</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>373.4353631857618</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>1207.78565514394</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2333.516638580387</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.667132127231</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4616.043944181924</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4395.976717054963</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4136.75441437198</v>
       </c>
       <c r="V11" t="n">
-        <v>2443.703032772709</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="W11" t="n">
-        <v>2038.847578183742</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X11" t="n">
-        <v>2038.847578183742</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1757.876059160554</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677765</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>736.859919727155</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>736.859919727155</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>736.859919727155</v>
+        <v>1604.797076516338</v>
       </c>
       <c r="N12" t="n">
-        <v>736.859919727155</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O12" t="n">
-        <v>736.859919727155</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P12" t="n">
-        <v>1431.424115479778</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>906.6224367337129</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>734.0607252169378</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>568.1827324184605</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E13" t="n">
-        <v>398.4247286691979</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F13" t="n">
-        <v>221.7176746309541</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G13" t="n">
-        <v>56.12639965678176</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>56.12639965677765</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2654.546840516897</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2654.546840516897</v>
+        <v>2642.319662967024</v>
       </c>
       <c r="T13" t="n">
-        <v>2408.667394095352</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U13" t="n">
-        <v>2130.234393348457</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1843.278885218888</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.252480805179</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X13" t="n">
-        <v>1325.860726138592</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.4410554527</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>989.6504216068306</v>
+        <v>2408.082100998617</v>
       </c>
       <c r="C14" t="n">
-        <v>551.507948790254</v>
+        <v>1969.93962818204</v>
       </c>
       <c r="D14" t="n">
-        <v>551.507948790254</v>
+        <v>1534.029843356485</v>
       </c>
       <c r="E14" t="n">
-        <v>551.507948790254</v>
+        <v>1100.25509851478</v>
       </c>
       <c r="F14" t="n">
-        <v>551.507948790254</v>
+        <v>672.3876689239878</v>
       </c>
       <c r="G14" t="n">
-        <v>150.1101174135179</v>
+        <v>270.9898375472517</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963769</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>750.690595409401</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>750.690595409401</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>1396.102936374607</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>2090.667132127231</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.668109022719</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2502.600881895758</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U14" t="n">
-        <v>2243.378579212775</v>
+        <v>4429.282663259701</v>
       </c>
       <c r="V14" t="n">
-        <v>2243.378579212775</v>
+        <v>4066.665713193527</v>
       </c>
       <c r="W14" t="n">
-        <v>2243.378579212775</v>
+        <v>3661.810258604561</v>
       </c>
       <c r="X14" t="n">
-        <v>1824.236115792085</v>
+        <v>3242.667795183871</v>
       </c>
       <c r="Y14" t="n">
-        <v>1415.949992091739</v>
+        <v>2834.381671483525</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677765</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K15" t="n">
-        <v>736.859919727155</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L15" t="n">
-        <v>1431.424115479778</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M15" t="n">
-        <v>1431.424115479778</v>
+        <v>479.4321036325088</v>
       </c>
       <c r="N15" t="n">
-        <v>1431.424115479778</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1135.184560268663</v>
+        <v>1027.237870108425</v>
       </c>
       <c r="C16" t="n">
-        <v>962.6228487518875</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W16" t="n">
-        <v>1680.858864264937</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X16" t="n">
-        <v>1554.422849673542</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="Y16" t="n">
-        <v>1327.00317898765</v>
+        <v>1219.056488827413</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5494,49 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K18" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L18" t="n">
-        <v>782.9943603411569</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1327.049347523737</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="20">
@@ -5735,10 +5737,10 @@
         <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,13 +5758,13 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2970399865835</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>426.8553649527958</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5944,16 +5946,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>949.5782250957668</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>777.0165135789917</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>611.1385207805145</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>441.3805170312517</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>264.6734629930079</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6406,22 +6408,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W28" t="n">
-        <v>1726.993304878938</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
         <v>1600.55729028754</v>
@@ -6461,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J30" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>1082.867562242341</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>1082.867562242341</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>1082.867562242341</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>137.965694649704</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>137.965694649704</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>211.240503094076</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>211.240503094076</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>1286.300469346935</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2443.348304557486</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,13 +6785,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3572.656769371182</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4552.836435941488</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>4552.836435941488</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>5099.335221900083</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2228.223903459162</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1941.268395329592</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1669.241990915884</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.850236249296</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,49 +7177,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>852.6195887352246</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2009.667423945775</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>3135.398407382223</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O38" t="n">
-        <v>4115.578073952529</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4945.891623321967</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="N39" t="n">
-        <v>287.8657185439749</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="O39" t="n">
-        <v>287.8657185439749</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1660.646436797299</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2482.348817664927</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C41" t="n">
-        <v>2044.20634484835</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D41" t="n">
-        <v>1608.296560022795</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E41" t="n">
-        <v>1174.52181518109</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F41" t="n">
-        <v>746.6543855902976</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>345.2565542135614</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677765</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677765</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M41" t="n">
-        <v>56.12639965677765</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5387406219839</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838882</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>2806.319982838882</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y41" t="n">
-        <v>2806.319982838882</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>82.19007281723525</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>936.021034498749</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>936.021034498749</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>770.1430417002717</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>600.3850379510091</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T43" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U43" t="n">
-        <v>1967.814372394506</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="V43" t="n">
-        <v>1680.858864264937</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1408.832459851228</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
-        <v>1163.440705184641</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2044.62313422121</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C44" t="n">
-        <v>2044.62313422121</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D44" t="n">
-        <v>1608.713349395655</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.93860455395</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F44" t="n">
-        <v>747.0711749631575</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G44" t="n">
-        <v>345.6733435864214</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963765</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096956</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L44" t="n">
-        <v>1185.945282862319</v>
+        <v>1007.31473861678</v>
       </c>
       <c r="M44" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N44" t="n">
-        <v>1396.102936374607</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127231</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085826</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T44" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U44" t="n">
-        <v>2547.097680155899</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V44" t="n">
-        <v>2470.922704706118</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W44" t="n">
-        <v>2470.922704706118</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X44" t="n">
-        <v>2470.922704706118</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y44" t="n">
-        <v>2470.922704706118</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056519</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723525</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1087.481917853825</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>236.0047077152468</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>236.0047077152468</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>236.0047077152468</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>96.10253340562127</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1754.849488937502</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1509.457734270914</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1282.038063585023</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,10 +7987,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984396</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>30.03100411261585</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8471,10 +8473,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8535,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8687,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>282.4901655221295</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,19 +8701,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>35.39394564341933</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>290.8505511674828</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>651.9316575406125</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284824</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
-        <v>290.8505511674828</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>164.427348413367</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,16 +9406,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10188,13 +10190,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10361,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,16 +10433,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>13.84524407969457</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>757.9381297620657</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10911,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,13 +11071,13 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>651.9316575406125</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>79.99429024216965</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>11.07894353484932</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>126.0414586303868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3.14686572942793</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6075939111746</v>
+        <v>110.7913121651019</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.1344859240867</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23713,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>117.7661826744404</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.14686572942469</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>117.7661826744372</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>90.92021546249606</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>117.7661826744373</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>52.42554389793628</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>44.00051207685087</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>33.27974144948195</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.3051212578429</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>26.3357961106035</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>81.78272691405257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>283.5775548702286</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>81.78272691405262</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26032,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>48.19697732171623</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410801.2783691497</v>
+        <v>582038.7262341155</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410801.2783691496</v>
+        <v>582038.7262341155</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190463</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410801.2783691497</v>
+        <v>582038.7262341154</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410801.2783691498</v>
+        <v>582038.7262341154</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>388706.8069205461</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205461</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>252817.8237739504</v>
+        <v>358201.8164666984</v>
       </c>
       <c r="F2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="G2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="H2" t="n">
         <v>381971.7484995805</v>
-      </c>
-      <c r="H2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
+        <v>381971.7484995803</v>
+      </c>
+      <c r="K2" t="n">
         <v>381971.7484995804</v>
       </c>
-      <c r="K2" t="n">
-        <v>381971.7484995803</v>
-      </c>
       <c r="L2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995803</v>
+        <v>381971.7484995804</v>
       </c>
       <c r="O2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666983</v>
       </c>
       <c r="P2" t="n">
-        <v>252817.8237739505</v>
+        <v>358201.8164666982</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.9966004562</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340822</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>53902.87451562431</v>
+        <v>76371.62315556088</v>
       </c>
       <c r="F4" t="n">
-        <v>53902.87451562431</v>
+        <v>76371.62315556091</v>
       </c>
       <c r="G4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904278</v>
+        <v>81439.57146904286</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904283</v>
+        <v>81439.57146904284</v>
       </c>
       <c r="K4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="L4" t="n">
+        <v>81439.57146904284</v>
+      </c>
+      <c r="M4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="M4" t="n">
-        <v>81439.57146904281</v>
       </c>
       <c r="N4" t="n">
         <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>53902.87451562437</v>
+        <v>76371.6231555609</v>
       </c>
       <c r="P4" t="n">
-        <v>53902.87451562437</v>
+        <v>76371.6231555609</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74468.50448481487</v>
+        <v>-74468.50448481482</v>
       </c>
       <c r="C6" t="n">
-        <v>149231.1940992301</v>
+        <v>149231.19409923</v>
       </c>
       <c r="D6" t="n">
         <v>149231.19409923</v>
       </c>
       <c r="E6" t="n">
-        <v>146087.8889187188</v>
+        <v>59899.16425706072</v>
       </c>
       <c r="F6" t="n">
-        <v>156258.8855191751</v>
+        <v>210564.9178288085</v>
       </c>
       <c r="G6" t="n">
-        <v>64754.46147863602</v>
+        <v>193724.1292521373</v>
       </c>
       <c r="H6" t="n">
         <v>222813.9384247451</v>
       </c>
       <c r="I6" t="n">
-        <v>222813.9384247451</v>
+        <v>222813.938424745</v>
       </c>
       <c r="J6" t="n">
-        <v>48162.58970703895</v>
+        <v>48162.58970703883</v>
       </c>
       <c r="K6" t="n">
         <v>222813.938424745</v>
@@ -26552,16 +26554,16 @@
         <v>222813.938424745</v>
       </c>
       <c r="M6" t="n">
-        <v>214324.8567214042</v>
+        <v>97062.85008905426</v>
       </c>
       <c r="N6" t="n">
-        <v>222813.9384247449</v>
+        <v>222813.938424745</v>
       </c>
       <c r="O6" t="n">
-        <v>156258.8855191751</v>
+        <v>210564.9178288086</v>
       </c>
       <c r="P6" t="n">
-        <v>156258.8855191751</v>
+        <v>210564.9178288086</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186362</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27433,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>224.2688042213265</v>
+        <v>370.2548715022045</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33579611060421</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>102.986369995735</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>226.8849511583581</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>256.4937245134202</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>77.73307607587175</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>270.9367814358977</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>226.8987935852468</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28263,7 +28265,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.587664832261486e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28807,7 +28809,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,10 +34707,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>200.3264657984396</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>30.03100411261585</v>
+      </c>
+      <c r="L5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35173,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35191,10 +35193,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35255,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>566.3319231075541</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35407,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>282.4901655221295</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>35.39394564341933</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>290.8505511674828</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>651.9316575406125</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>275.1780957607234</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>701.5799957097207</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284824</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
-        <v>290.8505511674828</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>164.427348413367</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>324.5237132641532</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,16 +36126,16 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1082.305540278396</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03656536949883105</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>689.5283227345933</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0804674982791</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37078,19 +37080,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,16 +37153,16 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>13.84524407969457</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>757.9381297620657</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>168.8387779969844</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,19 +37633,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>187.4796750234296</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>105.9132979316059</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,19 +37791,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>651.9316575406125</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097206</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>79.99429024216965</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1177071.23528972</v>
+        <v>1176465.147660823</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797155</v>
+        <v>606553.2040797166</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7008088.501158557</v>
+        <v>7008088.501158554</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>206.5520697011265</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>44.69616728427791</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>137.8834167598883</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -876,10 +876,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>166.3197703738364</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -898,10 +898,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>204.6657358189418</v>
+        <v>162.8596001754287</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1065,16 +1065,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>90.30617524481291</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>170.485059477722</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>405.5061785777958</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>296.3895842133463</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.73641154315204</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>46.2253027104011</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>108.1177056177448</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>175.447540846114</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1669,13 +1669,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>393.5369404076234</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>26.70160847752059</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1779,10 +1779,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.507671948555</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.97358346682158</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>56.95997704284446</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2298,10 +2298,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>166.3197703738366</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2478,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>114.9577730479995</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>35.34780583513513</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,13 +3012,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>216.3562841193488</v>
       </c>
     </row>
     <row r="32">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>126.8355823247564</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>102.6974459740356</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>45.61239570677666</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3714,13 +3714,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>193.8659438253727</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>21.87520451048465</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3793,10 +3793,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>62.61079093391727</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>112.1821023581628</v>
       </c>
       <c r="U43" t="n">
-        <v>193.8659438253731</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3982,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>19.66484339937357</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>318.2330637490527</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.1177056177446</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>43.48898701015898</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4194,7 +4194,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>1270.561784452093</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>1236.459715675921</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4330,28 +4330,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M2" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4366,16 +4366,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>2306.628825816691</v>
       </c>
       <c r="X2" t="n">
-        <v>2624.098132161372</v>
+        <v>1887.486362396002</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.812008461025</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1693.724792654855</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2354.564847196633</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D4" t="n">
         <v>794.0196728252577</v>
@@ -4500,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4524,16 +4524,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1965.089189266357</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>752.2549115535338</v>
+        <v>305.9860876711973</v>
       </c>
       <c r="C5" t="n">
-        <v>314.1124387369571</v>
+        <v>271.8840188950247</v>
       </c>
       <c r="D5" t="n">
         <v>107.3793722531775</v>
@@ -4567,25 +4567,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>518.3865980530361</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>1179.226652594814</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>1840.066707136593</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>2500.906761678371</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
         <v>2500.906761678371</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>2410.838523748444</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>2410.838523748444</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>2005.983069159478</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>1586.840605738788</v>
+        <v>1140.571781856452</v>
       </c>
       <c r="Y5" t="n">
-        <v>1178.554482038442</v>
+        <v>732.2856581561051</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>2018.283117621067</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C7" t="n">
-        <v>568.9155211348376</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D7" t="n">
-        <v>403.0375283363603</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E7" t="n">
-        <v>233.2795245870976</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F7" t="n">
-        <v>142.0611657539532</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.1815672676233</v>
+        <v>1382.829461272046</v>
       </c>
       <c r="C8" t="n">
-        <v>715.0794984914507</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>683.2101177062993</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>653.4757769049986</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>225.6083473142064</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4819,13 +4819,13 @@
         <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2471.176067606882</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.72477542213</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1598.869320833163</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.767261452878</v>
+        <v>1409.334347376492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1175.481137752531</v>
+        <v>1405.08862771655</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1038.799596036619</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H11" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>373.4353631857618</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K11" t="n">
-        <v>1207.78565514394</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L11" t="n">
-        <v>1207.78565514394</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M11" t="n">
-        <v>1207.78565514394</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N11" t="n">
-        <v>2333.516638580387</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O11" t="n">
-        <v>3313.696305150693</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P11" t="n">
-        <v>4142.00617998409</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4616.043944181924</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4395.976717054963</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4136.75441437198</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>3774.137464305806</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3774.137464305806</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3354.995000885117</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2946.70887718477</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,7 +5114,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
         <v>119.8337724793113</v>
@@ -5129,31 +5129,31 @@
         <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.797076516338</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1639.837082703323</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5181,22 +5181,22 @@
         <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>834.3885556154828</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>664.63055186622</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
-        <v>487.9234978279762</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>182.4300485441784</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2642.319662967024</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2396.440216545479</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2396.440216545479</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>2109.48470841591</v>
+        <v>1917.666089696923</v>
       </c>
       <c r="W13" t="n">
-        <v>1837.458304002202</v>
+        <v>1645.639685283214</v>
       </c>
       <c r="X13" t="n">
-        <v>1592.066549335614</v>
+        <v>1400.247930616627</v>
       </c>
       <c r="Y13" t="n">
-        <v>1364.646878649722</v>
+        <v>1172.828259930735</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2408.082100998617</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C14" t="n">
-        <v>1969.93962818204</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D14" t="n">
-        <v>1534.029843356485</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E14" t="n">
-        <v>1100.25509851478</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F14" t="n">
-        <v>672.3876689239878</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G14" t="n">
-        <v>270.9898375472517</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
         <v>529.0247867717716</v>
@@ -5284,46 +5284,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>2438.435044982809</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>3418.614711553115</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>4246.924586386512</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>4688.504965942684</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>4688.504965942684</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>4429.282663259701</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>4066.665713193527</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>3661.810258604561</v>
+        <v>3365.434551232599</v>
       </c>
       <c r="X14" t="n">
-        <v>3242.667795183871</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y14" t="n">
-        <v>2834.381671483525</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>479.4321036325088</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1027.237870108425</v>
+        <v>867.3348106469373</v>
       </c>
       <c r="C16" t="n">
-        <v>1000.26654841396</v>
+        <v>694.7730991301622</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154828</v>
+        <v>528.8951063316849</v>
       </c>
       <c r="E16" t="n">
-        <v>664.63055186622</v>
+        <v>359.1371025824221</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279762</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="G16" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441784</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U16" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V16" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W16" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X16" t="n">
-        <v>1446.476159513304</v>
+        <v>1286.573100051816</v>
       </c>
       <c r="Y16" t="n">
-        <v>1219.056488827413</v>
+        <v>1059.153429365924</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1327.049347523737</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,43 +5761,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>605.8694973157604</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1680.92946356862</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2837.977298779171</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
-        <v>3963.708282215618</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O29" t="n">
-        <v>4943.887948785924</v>
+        <v>4117.581748488571</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>303.5569696238763</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>137.965694649704</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>137.965694649704</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6660,13 +6660,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,7 +6940,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>557.2627364873769</v>
       </c>
       <c r="L35" t="n">
         <v>1632.322702740236</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2455.944287558408</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2177.511286811513</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7168,7 +7168,7 @@
         <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7186,13 +7186,13 @@
         <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>3137.402081918264</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>4117.581748488571</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>4945.891623321967</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
         <v>5113.042013538981</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>426.819165236992</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1660.646436797299</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1660.646436797299</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.63412410994</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931653</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>719.194419794688</v>
       </c>
       <c r="E40" t="n">
         <v>673.1212928181459</v>
@@ -7347,37 +7347,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2281.246080724685</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1994.290572595115</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1722.264168181407</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514819</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828928</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055493</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C41" t="n">
         <v>2082.266833883286</v>
@@ -7405,10 +7405,10 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7417,46 +7417,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1363.37507872995</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2164.36257382733</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.609868960946</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.992918894773</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3774.137464305806</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240747</v>
+        <v>3354.995000885117</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.6625705404</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,7 +7484,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
         <v>119.8337724793113</v>
@@ -7514,16 +7514,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>914.4103069561476</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>741.8485954393725</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>575.9706026408952</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>399.2635486026514</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2305.308894098105</v>
+        <v>2416.455264317787</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.48470841591</v>
+        <v>2138.022263570892</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1851.066755441322</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002202</v>
+        <v>1579.040351027614</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1333.648596361026</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1106.228925675135</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055493</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238916</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.357049057731</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E44" t="n">
         <v>1212.582304216026</v>
@@ -7642,58 +7642,58 @@
         <v>383.3170432484974</v>
       </c>
       <c r="H44" t="n">
-        <v>94.18688869171368</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>93.77009931885368</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>1007.31473861678</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942684</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U44" t="n">
-        <v>4125.563562316576</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250403</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661436</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240747</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.6625705404</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101465</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467888</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7751,16 +7751,16 @@
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797663</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246046</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576616</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106889</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899096</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>962.5053054384693</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>789.9435939216943</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154828</v>
+        <v>624.065601123217</v>
       </c>
       <c r="E46" t="n">
-        <v>664.63055186622</v>
+        <v>454.3075973739543</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279762</v>
+        <v>277.6005433357104</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>233.6722736284791</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885368</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7833,25 +7833,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U46" t="n">
-        <v>2026.87589335121</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V46" t="n">
-        <v>2026.87589335121</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W46" t="n">
-        <v>1754.849488937502</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X46" t="n">
-        <v>1509.457734270914</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y46" t="n">
-        <v>1282.038063585023</v>
+        <v>1154.323924157457</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8157,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.4901655221295</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>35.39394564341933</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,7 +8932,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>275.1780957607234</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284824</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9409,7 +9409,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
@@ -10129,13 +10129,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>453.4964435270858</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10843,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,16 +11296,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>79.99429024216965</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>125.6469905667124</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.07894353484932</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>175.968247430529</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>110.7913121651019</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.269959635453631</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>144.1344859240867</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>63.4301651713667</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.9268490649757</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>107.2592358276481</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>55.87832135360782</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>52.42554389793628</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.789189859683972</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>44.00051207685087</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>140.7232059832936</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>122.4480280049935</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>81.78272691405303</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>194.019288722236</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>131.2385495991665</v>
       </c>
       <c r="U43" t="n">
-        <v>81.78272691405257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>111.203933644235</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.78272691405262</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>582038.7262341155</v>
+        <v>582038.7262341153</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>582038.7262341155</v>
+        <v>582038.7262341153</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190463</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>620662.2628190463</v>
+        <v>620662.2628190464</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620662.2628190464</v>
+        <v>620662.2628190465</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582038.7262341154</v>
+        <v>582038.7262341153</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582038.7262341154</v>
+        <v>582038.7262341153</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.806920546</v>
       </c>
       <c r="C2" t="n">
-        <v>388706.8069205461</v>
+        <v>388706.8069205462</v>
       </c>
       <c r="D2" t="n">
         <v>388706.8069205461</v>
       </c>
       <c r="E2" t="n">
-        <v>358201.8164666984</v>
+        <v>358201.8164666982</v>
       </c>
       <c r="F2" t="n">
-        <v>358201.8164666982</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="G2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="H2" t="n">
-        <v>381971.7484995805</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="I2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="J2" t="n">
+        <v>381971.7484995804</v>
+      </c>
+      <c r="K2" t="n">
         <v>381971.7484995803</v>
-      </c>
-      <c r="K2" t="n">
-        <v>381971.7484995804</v>
       </c>
       <c r="L2" t="n">
         <v>381971.7484995804</v>
       </c>
       <c r="M2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995803</v>
       </c>
       <c r="N2" t="n">
-        <v>381971.7484995804</v>
+        <v>381971.7484995805</v>
       </c>
       <c r="O2" t="n">
-        <v>358201.8164666983</v>
+        <v>358201.8164666981</v>
       </c>
       <c r="P2" t="n">
-        <v>358201.8164666982</v>
+        <v>358201.8164666981</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.753571748</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260779</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356908</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165263.0882595584</v>
+        <v>165263.0882595585</v>
       </c>
       <c r="C4" t="n">
         <v>165263.0882595584</v>
@@ -26426,28 +26426,28 @@
         <v>165263.0882595584</v>
       </c>
       <c r="E4" t="n">
-        <v>76371.62315556088</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="F4" t="n">
-        <v>76371.62315556091</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="G4" t="n">
         <v>81439.57146904283</v>
       </c>
       <c r="H4" t="n">
-        <v>81439.57146904286</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="I4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="J4" t="n">
-        <v>81439.57146904284</v>
+        <v>81439.57146904283</v>
       </c>
       <c r="K4" t="n">
+        <v>81439.57146904281</v>
+      </c>
+      <c r="L4" t="n">
         <v>81439.57146904283</v>
-      </c>
-      <c r="L4" t="n">
-        <v>81439.57146904284</v>
       </c>
       <c r="M4" t="n">
         <v>81439.57146904283</v>
@@ -26456,10 +26456,10 @@
         <v>81439.57146904284</v>
       </c>
       <c r="O4" t="n">
-        <v>76371.6231555609</v>
+        <v>76371.62315556087</v>
       </c>
       <c r="P4" t="n">
-        <v>76371.6231555609</v>
+        <v>76371.62315556087</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.2754823288</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-74468.50448481482</v>
+        <v>-74468.50448481496</v>
       </c>
       <c r="C6" t="n">
-        <v>149231.19409923</v>
+        <v>149231.1940992301</v>
       </c>
       <c r="D6" t="n">
         <v>149231.19409923</v>
       </c>
       <c r="E6" t="n">
-        <v>59899.16425706072</v>
+        <v>59793.97463480604</v>
       </c>
       <c r="F6" t="n">
-        <v>210564.9178288085</v>
+        <v>210459.7282065538</v>
       </c>
       <c r="G6" t="n">
-        <v>193724.1292521373</v>
+        <v>193700.9049127544</v>
       </c>
       <c r="H6" t="n">
-        <v>222813.9384247451</v>
+        <v>222790.7140853624</v>
       </c>
       <c r="I6" t="n">
-        <v>222813.938424745</v>
+        <v>222790.7140853624</v>
       </c>
       <c r="J6" t="n">
-        <v>48162.58970703883</v>
+        <v>48139.36536765625</v>
       </c>
       <c r="K6" t="n">
-        <v>222813.938424745</v>
+        <v>222790.7140853624</v>
       </c>
       <c r="L6" t="n">
-        <v>222813.938424745</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="M6" t="n">
-        <v>97062.85008905426</v>
+        <v>97039.62574967166</v>
       </c>
       <c r="N6" t="n">
-        <v>222813.938424745</v>
+        <v>222790.7140853625</v>
       </c>
       <c r="O6" t="n">
-        <v>210564.9178288086</v>
+        <v>210459.7282065538</v>
       </c>
       <c r="P6" t="n">
-        <v>210564.9178288086</v>
+        <v>210459.7282065538</v>
       </c>
     </row>
   </sheetData>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.611034877814</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990743</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>215.4845050789322</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>370.2548715022045</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>52.01701577190892</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.986369995735</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>226.8849511583581</v>
+        <v>268.6910868018712</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>84.63380825304843</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>226.8987935852468</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>9.444860208686634</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -30240,7 +30240,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30419,7 +30419,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N2" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>200.3264657984396</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>30.03100411261585</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="N5" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>200.8936957823703</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>566.3319231075541</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.4901655221295</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>35.39394564341933</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35652,7 +35652,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>275.1780957607234</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284824</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>324.5237132641532</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36129,7 +36129,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>508.6956131767483</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>453.4964435270858</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>459.5978749662599</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -37554,16 +37554,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>753.9218057523913</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>168.8387779969844</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>105.9132979316059</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37715,7 +37715,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512984</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37785,16 +37785,16 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>79.99429024216965</v>
+        <v>979.9409695458944</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
